--- a/Data/Info_summary.xlsx
+++ b/Data/Info_summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
   <si>
     <t>follow-up time: 36 months</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Subjects with 5 events</t>
+  </si>
+  <si>
+    <t>alive group</t>
+  </si>
+  <si>
+    <t>dead group</t>
   </si>
   <si>
     <t>Evolo</t>
@@ -1018,7 +1024,7 @@
     <xdr:ext cx="16335375" cy="7962900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1051,7 +1057,7 @@
     <xdr:ext cx="17345025" cy="7191375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1084,7 +1090,7 @@
     <xdr:ext cx="5562600" cy="7458075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1162,7 +1168,7 @@
     <xdr:ext cx="9972675" cy="5048250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="图片"/>
+        <xdr:cNvPr id="0" name="image3.png" title="图片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1195,7 +1201,7 @@
     <xdr:ext cx="9953625" cy="5038725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="图片"/>
+        <xdr:cNvPr id="0" name="image7.png" title="图片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1228,7 +1234,7 @@
     <xdr:ext cx="9982200" cy="5229225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="图片"/>
+        <xdr:cNvPr id="0" name="image4.png" title="图片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -22111,10 +22117,16 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
+      <c r="C19" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
+      <c r="C20" s="41" t="s">
+        <v>42</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="R20" s="1"/>
     </row>
@@ -26368,7 +26380,7 @@
     </row>
     <row r="30">
       <c r="A30" s="102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="103" t="s">
         <v>2</v>
@@ -26376,28 +26388,28 @@
     </row>
     <row r="31">
       <c r="A31" s="101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="F31" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="104" t="s">
-        <v>43</v>
-      </c>
       <c r="G31" s="101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31" s="101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
